--- a/biology/Biochimie/Flavoprotéine_de_transfert_d'électrons/Flavoprotéine_de_transfert_d'électrons.xlsx
+++ b/biology/Biochimie/Flavoprotéine_de_transfert_d'électrons/Flavoprotéine_de_transfert_d'électrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flavoprot%C3%A9ine_de_transfert_d%27%C3%A9lectrons</t>
+          <t>Flavoprotéine_de_transfert_d'électrons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une flavoprotéine de transfert d'électrons (ETF, pour electron-transferring flavoprotein) est une flavoprotéine intervenant comme accepteur d'électrons de déshydrogénases de la chaîne respiratoire, notamment de l'ETF déshydrogénase. On distingue les ETF du groupe I, qui interviennent essentiellement dans l'oxydation des acides gras, et les ETF du groupe II, produites par certains procaryotes soumis à des conditions de croissance particulières et qui reçoivent leurs électrons de substrats spécifiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une flavoprotéine de transfert d'électrons (ETF, pour electron-transferring flavoprotein) est une flavoprotéine intervenant comme accepteur d'électrons de déshydrogénases de la chaîne respiratoire, notamment de l'ETF déshydrogénase. On distingue les ETF du groupe I, qui interviennent essentiellement dans l'oxydation des acides gras, et les ETF du groupe II, produites par certains procaryotes soumis à des conditions de croissance particulières et qui reçoivent leurs électrons de substrats spécifiques.
 Les flavoprotéines de transfert d'électrons sont des protéines hétérodimériques constituées d'une sous-unité alpha ETFA et d'une sous-unité bêta ETFB. 
-Elles contiennent du FAD et de l'AMP comme cofacteurs[2],[3]. 
+Elles contiennent du FAD et de l'AMP comme cofacteurs,. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flavoprot%C3%A9ine_de_transfert_d%27%C3%A9lectrons</t>
+          <t>Flavoprotéine_de_transfert_d'électrons</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles comprennent trois domaines : 
 les domaines I et II sont formés respectivement par les extrémités N-terminale et C-terminale de la sous-unité alpha
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flavoprot%C3%A9ine_de_transfert_d%27%C3%A9lectrons</t>
+          <t>Flavoprotéine_de_transfert_d'électrons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une mutation des ETF est à l'origine d'une maladie génétique, l'acidémie glutarique type 2 (en), empêchant le transfert normal des électrons du FADH2 à la chaîne respiratoire.
 </t>
